--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDCA3DAE-7D04-44E7-AD60-91B5E61562C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{225C711A-5703-4D31-BCA2-E75C6E3A1E63}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医生贾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医生一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +288,10 @@
   </si>
   <si>
     <t>医技二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,10 +651,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1007</v>
+        <v>2219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>100007</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>2222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
         <v>800007</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>2223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>100009</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1003</v>
+        <v>2224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>800004</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1004</v>
+        <v>2225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>100004</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1005</v>
+        <v>2226</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
         <v>100003</v>
